--- a/Code/Results/Cases/Case_1_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.298508596651716</v>
+        <v>7.77487549862099</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.76810951719436</v>
+        <v>9.839353882531107</v>
       </c>
       <c r="E2">
-        <v>23.4107544633754</v>
+        <v>12.34823502320366</v>
       </c>
       <c r="F2">
-        <v>108.1005994620233</v>
+        <v>55.07432857900692</v>
       </c>
       <c r="G2">
-        <v>1.653458388207224</v>
+        <v>3.595516286326692</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>56.39369478423239</v>
+        <v>28.62232417437256</v>
       </c>
       <c r="N2">
-        <v>11.36895795760291</v>
+        <v>17.09175230921114</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.925889031939046</v>
+        <v>7.701677463735026</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.44130286177441</v>
+        <v>9.488196865936814</v>
       </c>
       <c r="E3">
-        <v>20.98611823839272</v>
+        <v>11.73843576557568</v>
       </c>
       <c r="F3">
-        <v>95.13228990354587</v>
+        <v>52.69921568052324</v>
       </c>
       <c r="G3">
-        <v>1.740747535161593</v>
+        <v>3.608381685423935</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>50.29447662614406</v>
+        <v>27.33547170258859</v>
       </c>
       <c r="N3">
-        <v>11.77580758387989</v>
+        <v>17.14685100458605</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.692812499389332</v>
+        <v>7.658230693850197</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.19446258268726</v>
+        <v>9.272720861691635</v>
       </c>
       <c r="E4">
-        <v>19.67960803972096</v>
+        <v>11.34729184380394</v>
       </c>
       <c r="F4">
-        <v>88.14499530561629</v>
+        <v>51.2217775676208</v>
       </c>
       <c r="G4">
-        <v>1.78510557912536</v>
+        <v>3.616605203599129</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>46.91590092070003</v>
+        <v>26.52672657367357</v>
       </c>
       <c r="N4">
-        <v>11.98307321499681</v>
+        <v>17.18323382238964</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.596666213680933</v>
+        <v>7.640921800496317</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.70836926648439</v>
+        <v>9.18508494781887</v>
       </c>
       <c r="E5">
-        <v>19.16770269998772</v>
+        <v>11.18378594592479</v>
       </c>
       <c r="F5">
-        <v>85.41617651176196</v>
+        <v>50.61586490879911</v>
       </c>
       <c r="G5">
-        <v>1.801945759967592</v>
+        <v>3.620038933322151</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>45.57851644595382</v>
+        <v>26.19295672432217</v>
       </c>
       <c r="N5">
-        <v>12.0621876845432</v>
+        <v>17.1987063318246</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.580631142453358</v>
+        <v>7.638072147792325</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.62859075766876</v>
+        <v>9.17054768201948</v>
       </c>
       <c r="E6">
-        <v>19.08353120925457</v>
+        <v>11.1563907231572</v>
       </c>
       <c r="F6">
-        <v>84.96812513372414</v>
+        <v>50.51505149677724</v>
       </c>
       <c r="G6">
-        <v>1.804685391583545</v>
+        <v>3.620614120129297</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>45.35794961645583</v>
+        <v>26.13729614252336</v>
       </c>
       <c r="N6">
-        <v>12.07508908924695</v>
+        <v>17.2013146903331</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.6915205548198</v>
+        <v>7.657995631282563</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.18783682652347</v>
+        <v>9.271538086524735</v>
       </c>
       <c r="E7">
-        <v>19.67264108958702</v>
+        <v>11.34510325511123</v>
       </c>
       <c r="F7">
-        <v>88.10781474245064</v>
+        <v>51.21362023753313</v>
       </c>
       <c r="G7">
-        <v>1.785336826677742</v>
+        <v>3.616651176309635</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>46.89774722736627</v>
+        <v>26.52224155903817</v>
       </c>
       <c r="N7">
-        <v>11.98415759604646</v>
+        <v>17.18343986764043</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.170791873073109</v>
+        <v>7.749338032401296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.90546190508189</v>
+        <v>9.718326804054264</v>
       </c>
       <c r="E8">
-        <v>22.51243080148536</v>
+        <v>12.1414978914945</v>
       </c>
       <c r="F8">
-        <v>103.3059176714175</v>
+        <v>54.25989906503887</v>
       </c>
       <c r="G8">
-        <v>1.686508997276674</v>
+        <v>3.59988566639213</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>54.16450024687888</v>
+        <v>28.18274925949739</v>
       </c>
       <c r="N8">
-        <v>11.52320198270652</v>
+        <v>17.11022339960243</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.170791873073109</v>
+        <v>7.939448642363345</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.90546190508189</v>
+        <v>10.589993901559</v>
       </c>
       <c r="E9">
-        <v>22.51243080148536</v>
+        <v>13.56733956090898</v>
       </c>
       <c r="F9">
-        <v>103.3059176714175</v>
+        <v>60.04532556653706</v>
       </c>
       <c r="G9">
-        <v>1.686508997276674</v>
+        <v>3.56952973750546</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>54.16450024687888</v>
+        <v>31.27338326726317</v>
       </c>
       <c r="N9">
-        <v>11.52320198270652</v>
+        <v>16.98669033276574</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.170791873073109</v>
+        <v>8.084594525645604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.90546190508189</v>
+        <v>11.2210423186294</v>
       </c>
       <c r="E10">
-        <v>22.51243080148536</v>
+        <v>14.52895616044334</v>
       </c>
       <c r="F10">
-        <v>103.3059176714175</v>
+        <v>64.13958119940624</v>
       </c>
       <c r="G10">
-        <v>1.686508997276674</v>
+        <v>3.54869134786648</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>54.16450024687888</v>
+        <v>33.42325507962206</v>
       </c>
       <c r="N10">
-        <v>11.52320198270652</v>
+        <v>16.90786261383011</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.170791873073109</v>
+        <v>8.151546189942804</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.90546190508189</v>
+        <v>11.50493249365548</v>
       </c>
       <c r="E11">
-        <v>22.51243080148536</v>
+        <v>14.94737620586293</v>
       </c>
       <c r="F11">
-        <v>103.3059176714175</v>
+        <v>65.96151990606293</v>
       </c>
       <c r="G11">
-        <v>1.686508997276674</v>
+        <v>3.539512715240498</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>54.16450024687888</v>
+        <v>34.37193269238229</v>
       </c>
       <c r="N11">
-        <v>11.52320198270652</v>
+        <v>16.87452854559766</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.170791873073109</v>
+        <v>8.177009419745225</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.90546190508189</v>
+        <v>11.61189767405657</v>
       </c>
       <c r="E12">
-        <v>22.51243080148536</v>
+        <v>15.10306744981748</v>
       </c>
       <c r="F12">
-        <v>103.3059176714175</v>
+        <v>66.64517382580715</v>
       </c>
       <c r="G12">
-        <v>1.686508997276674</v>
+        <v>3.536078854745343</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>54.16450024687888</v>
+        <v>34.72675898337721</v>
       </c>
       <c r="N12">
-        <v>11.52320198270652</v>
+        <v>16.86226344462876</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.170791873073109</v>
+        <v>8.171520923059301</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.90546190508189</v>
+        <v>11.58888588931474</v>
       </c>
       <c r="E13">
-        <v>22.51243080148536</v>
+        <v>15.06965931162418</v>
       </c>
       <c r="F13">
-        <v>103.3059176714175</v>
+        <v>66.49822192537692</v>
       </c>
       <c r="G13">
-        <v>1.686508997276674</v>
+        <v>3.536816557591994</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>54.16450024687888</v>
+        <v>34.65054004322248</v>
       </c>
       <c r="N13">
-        <v>11.52320198270652</v>
+        <v>16.86488912753074</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.170791873073109</v>
+        <v>8.153638989000322</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.90546190508189</v>
+        <v>11.51374378330739</v>
       </c>
       <c r="E14">
-        <v>22.51243080148536</v>
+        <v>14.96024031822467</v>
       </c>
       <c r="F14">
-        <v>103.3059176714175</v>
+        <v>66.01789250909809</v>
       </c>
       <c r="G14">
-        <v>1.686508997276674</v>
+        <v>3.539229378056242</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>54.16450024687888</v>
+        <v>34.40121400848312</v>
       </c>
       <c r="N14">
-        <v>11.52320198270652</v>
+        <v>16.87351234887657</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.170791873073109</v>
+        <v>8.142699450162082</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.90546190508189</v>
+        <v>11.46764483356278</v>
       </c>
       <c r="E15">
-        <v>22.51243080148536</v>
+        <v>14.89285877752124</v>
       </c>
       <c r="F15">
-        <v>103.3059176714175</v>
+        <v>65.72284805806673</v>
       </c>
       <c r="G15">
-        <v>1.686508997276674</v>
+        <v>3.540712713534058</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>54.16450024687888</v>
+        <v>34.24791404075589</v>
       </c>
       <c r="N15">
-        <v>11.52320198270652</v>
+        <v>16.87884075451013</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.170791873073109</v>
+        <v>8.080235721100776</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.90546190508189</v>
+        <v>11.20241829066745</v>
       </c>
       <c r="E16">
-        <v>22.51243080148536</v>
+        <v>14.50122670519026</v>
       </c>
       <c r="F16">
-        <v>103.3059176714175</v>
+        <v>64.01965726805092</v>
       </c>
       <c r="G16">
-        <v>1.686508997276674</v>
+        <v>3.549297131006578</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>54.16450024687888</v>
+        <v>33.36064869877707</v>
       </c>
       <c r="N16">
-        <v>11.52320198270652</v>
+        <v>16.91009143426375</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.170791873073109</v>
+        <v>8.042136681941956</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.90546190508189</v>
+        <v>11.03883511876128</v>
       </c>
       <c r="E17">
-        <v>22.51243080148536</v>
+        <v>14.25608341833911</v>
       </c>
       <c r="F17">
-        <v>103.3059176714175</v>
+        <v>62.9640741922843</v>
       </c>
       <c r="G17">
-        <v>1.686508997276674</v>
+        <v>3.554639490824354</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>54.16450024687888</v>
+        <v>32.80867556185945</v>
       </c>
       <c r="N17">
-        <v>11.52320198270652</v>
+        <v>16.92990571954162</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.170791873073109</v>
+        <v>8.020311463081757</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.90546190508189</v>
+        <v>10.94445142944516</v>
       </c>
       <c r="E18">
-        <v>22.51243080148536</v>
+        <v>14.11329335139593</v>
       </c>
       <c r="F18">
-        <v>103.3059176714175</v>
+        <v>62.35313382901779</v>
       </c>
       <c r="G18">
-        <v>1.686508997276674</v>
+        <v>3.557740678618298</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>54.16450024687888</v>
+        <v>32.48844571713675</v>
       </c>
       <c r="N18">
-        <v>11.52320198270652</v>
+        <v>16.94154037120094</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.170791873073109</v>
+        <v>8.012937687491393</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.90546190508189</v>
+        <v>10.91244674390194</v>
       </c>
       <c r="E19">
-        <v>22.51243080148536</v>
+        <v>14.0646403921859</v>
       </c>
       <c r="F19">
-        <v>103.3059176714175</v>
+        <v>62.14564271062692</v>
       </c>
       <c r="G19">
-        <v>1.686508997276674</v>
+        <v>3.55879560675992</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>54.16450024687888</v>
+        <v>32.37955603054407</v>
       </c>
       <c r="N19">
-        <v>11.52320198270652</v>
+        <v>16.94552069972541</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.170791873073109</v>
+        <v>8.046183412191828</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.90546190508189</v>
+        <v>11.05627998183288</v>
       </c>
       <c r="E20">
-        <v>22.51243080148536</v>
+        <v>14.28236478499828</v>
       </c>
       <c r="F20">
-        <v>103.3059176714175</v>
+        <v>63.07683925737064</v>
       </c>
       <c r="G20">
-        <v>1.686508997276674</v>
+        <v>3.55406785758359</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>54.16450024687888</v>
+        <v>32.86772020722863</v>
       </c>
       <c r="N20">
-        <v>11.52320198270652</v>
+        <v>16.92777186097015</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.170791873073109</v>
+        <v>8.158888539816918</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.90546190508189</v>
+        <v>11.5358300234079</v>
       </c>
       <c r="E21">
-        <v>22.51243080148536</v>
+        <v>14.99245421772055</v>
       </c>
       <c r="F21">
-        <v>103.3059176714175</v>
+        <v>66.15915029621051</v>
       </c>
       <c r="G21">
-        <v>1.686508997276674</v>
+        <v>3.538519548618552</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>54.16450024687888</v>
+        <v>34.47456840363066</v>
       </c>
       <c r="N21">
-        <v>11.52320198270652</v>
+        <v>16.87096983277958</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.170791873073109</v>
+        <v>8.233179068490955</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.90546190508189</v>
+        <v>11.84607967096215</v>
       </c>
       <c r="E22">
-        <v>22.51243080148536</v>
+        <v>15.44047584969961</v>
       </c>
       <c r="F22">
-        <v>103.3059176714175</v>
+        <v>68.13689892703945</v>
       </c>
       <c r="G22">
-        <v>1.686508997276674</v>
+        <v>3.528601304692728</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54.16450024687888</v>
+        <v>35.49892334027498</v>
       </c>
       <c r="N22">
-        <v>11.52320198270652</v>
+        <v>16.83592927647574</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.170791873073109</v>
+        <v>8.193478552680597</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.90546190508189</v>
+        <v>11.68080669359632</v>
       </c>
       <c r="E23">
-        <v>22.51243080148536</v>
+        <v>15.20283210417433</v>
       </c>
       <c r="F23">
-        <v>103.3059176714175</v>
+        <v>67.08482137424372</v>
       </c>
       <c r="G23">
-        <v>1.686508997276674</v>
+        <v>3.533873050689236</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54.16450024687888</v>
+        <v>34.95462418596033</v>
       </c>
       <c r="N23">
-        <v>11.52320198270652</v>
+        <v>16.85444230536397</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.170791873073109</v>
+        <v>8.044353639435879</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.90546190508189</v>
+        <v>11.04839420432523</v>
       </c>
       <c r="E24">
-        <v>22.51243080148536</v>
+        <v>14.27048875209654</v>
       </c>
       <c r="F24">
-        <v>103.3059176714175</v>
+        <v>63.02587081902524</v>
       </c>
       <c r="G24">
-        <v>1.686508997276674</v>
+        <v>3.554326200066487</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>54.16450024687888</v>
+        <v>32.84103511870809</v>
       </c>
       <c r="N24">
-        <v>11.52320198270652</v>
+        <v>16.92873582065655</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.170791873073109</v>
+        <v>7.886967587280284</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.90546190508189</v>
+        <v>10.35539527624614</v>
       </c>
       <c r="E25">
-        <v>22.51243080148536</v>
+        <v>13.19653530915206</v>
       </c>
       <c r="F25">
-        <v>103.3059176714175</v>
+        <v>58.50506007514766</v>
       </c>
       <c r="G25">
-        <v>1.686508997276674</v>
+        <v>3.577479272937054</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>54.16450024687888</v>
+        <v>30.45727794898439</v>
       </c>
       <c r="N25">
-        <v>11.52320198270652</v>
+        <v>17.01799266548944</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.77487549862099</v>
+        <v>7.298508596651669</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.839353882531107</v>
+        <v>18.76810951719427</v>
       </c>
       <c r="E2">
-        <v>12.34823502320366</v>
+        <v>23.41075446337531</v>
       </c>
       <c r="F2">
-        <v>55.07432857900692</v>
+        <v>108.1005994620226</v>
       </c>
       <c r="G2">
-        <v>3.595516286326692</v>
+        <v>1.653458388207325</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.62232417437256</v>
+        <v>56.39369478423204</v>
       </c>
       <c r="N2">
-        <v>17.09175230921114</v>
+        <v>11.36895795760292</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.701677463735026</v>
+        <v>6.925889031939025</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.488196865936814</v>
+        <v>16.44130286177436</v>
       </c>
       <c r="E3">
-        <v>11.73843576557568</v>
+        <v>20.98611823839275</v>
       </c>
       <c r="F3">
-        <v>52.69921568052324</v>
+        <v>95.13228990354547</v>
       </c>
       <c r="G3">
-        <v>3.608381685423935</v>
+        <v>1.740747535161471</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.33547170258859</v>
+        <v>50.29447662614381</v>
       </c>
       <c r="N3">
-        <v>17.14685100458605</v>
+        <v>11.77580758387993</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.658230693850197</v>
+        <v>6.692812499389363</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.272720861691635</v>
+        <v>15.19446258268723</v>
       </c>
       <c r="E4">
-        <v>11.34729184380394</v>
+        <v>19.67960803972095</v>
       </c>
       <c r="F4">
-        <v>51.2217775676208</v>
+        <v>88.14499530561621</v>
       </c>
       <c r="G4">
-        <v>3.616605203599129</v>
+        <v>1.78510557912537</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.52672657367357</v>
+        <v>46.91590092069998</v>
       </c>
       <c r="N4">
-        <v>17.18323382238964</v>
+        <v>11.98307321499675</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.640921800496317</v>
+        <v>6.59666621368092</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.18508494781887</v>
+        <v>14.70836926648442</v>
       </c>
       <c r="E5">
-        <v>11.18378594592479</v>
+        <v>19.16770269998772</v>
       </c>
       <c r="F5">
-        <v>50.61586490879911</v>
+        <v>85.416176511762</v>
       </c>
       <c r="G5">
-        <v>3.620038933322151</v>
+        <v>1.80194575996734</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.19295672432217</v>
+        <v>45.57851644595389</v>
       </c>
       <c r="N5">
-        <v>17.1987063318246</v>
+        <v>12.06218768454324</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.638072147792325</v>
+        <v>6.580631142453345</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.17054768201948</v>
+        <v>14.62859075766876</v>
       </c>
       <c r="E6">
-        <v>11.1563907231572</v>
+        <v>19.08353120925453</v>
       </c>
       <c r="F6">
-        <v>50.51505149677724</v>
+        <v>84.96812513372444</v>
       </c>
       <c r="G6">
-        <v>3.620614120129297</v>
+        <v>1.804685391583173</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.13729614252336</v>
+        <v>45.35794961645603</v>
       </c>
       <c r="N6">
-        <v>17.2013146903331</v>
+        <v>12.07508908924702</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.657995631282563</v>
+        <v>6.69152055481982</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.271538086524735</v>
+        <v>15.18783682652344</v>
       </c>
       <c r="E7">
-        <v>11.34510325511123</v>
+        <v>19.67264108958713</v>
       </c>
       <c r="F7">
-        <v>51.21362023753313</v>
+        <v>88.10781474245067</v>
       </c>
       <c r="G7">
-        <v>3.616651176309635</v>
+        <v>1.78533682667787</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.52224155903817</v>
+        <v>46.8977472273663</v>
       </c>
       <c r="N7">
-        <v>17.18343986764043</v>
+        <v>11.98415759604647</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.749338032401296</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.718326804054264</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E8">
-        <v>12.1414978914945</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F8">
-        <v>54.25989906503887</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G8">
-        <v>3.59988566639213</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.18274925949739</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N8">
-        <v>17.11022339960243</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.939448642363345</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.589993901559</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E9">
-        <v>13.56733956090898</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F9">
-        <v>60.04532556653706</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G9">
-        <v>3.56952973750546</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>31.27338326726317</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N9">
-        <v>16.98669033276574</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.084594525645604</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.2210423186294</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E10">
-        <v>14.52895616044334</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F10">
-        <v>64.13958119940624</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G10">
-        <v>3.54869134786648</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>33.42325507962206</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N10">
-        <v>16.90786261383011</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.151546189942804</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.50493249365548</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E11">
-        <v>14.94737620586293</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F11">
-        <v>65.96151990606293</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G11">
-        <v>3.539512715240498</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34.37193269238229</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N11">
-        <v>16.87452854559766</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.177009419745225</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.61189767405657</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E12">
-        <v>15.10306744981748</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F12">
-        <v>66.64517382580715</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G12">
-        <v>3.536078854745343</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>34.72675898337721</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N12">
-        <v>16.86226344462876</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.171520923059301</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.58888588931474</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E13">
-        <v>15.06965931162418</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F13">
-        <v>66.49822192537692</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G13">
-        <v>3.536816557591994</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>34.65054004322248</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N13">
-        <v>16.86488912753074</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.153638989000322</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.51374378330739</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E14">
-        <v>14.96024031822467</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F14">
-        <v>66.01789250909809</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G14">
-        <v>3.539229378056242</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34.40121400848312</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N14">
-        <v>16.87351234887657</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.142699450162082</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.46764483356278</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E15">
-        <v>14.89285877752124</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F15">
-        <v>65.72284805806673</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G15">
-        <v>3.540712713534058</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34.24791404075589</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N15">
-        <v>16.87884075451013</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.080235721100776</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.20241829066745</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E16">
-        <v>14.50122670519026</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F16">
-        <v>64.01965726805092</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G16">
-        <v>3.549297131006578</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>33.36064869877707</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N16">
-        <v>16.91009143426375</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.042136681941956</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.03883511876128</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E17">
-        <v>14.25608341833911</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F17">
-        <v>62.9640741922843</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G17">
-        <v>3.554639490824354</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>32.80867556185945</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N17">
-        <v>16.92990571954162</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.020311463081757</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.94445142944516</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E18">
-        <v>14.11329335139593</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F18">
-        <v>62.35313382901779</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G18">
-        <v>3.557740678618298</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>32.48844571713675</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N18">
-        <v>16.94154037120094</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.012937687491393</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.91244674390194</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E19">
-        <v>14.0646403921859</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F19">
-        <v>62.14564271062692</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G19">
-        <v>3.55879560675992</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>32.37955603054407</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N19">
-        <v>16.94552069972541</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.046183412191828</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.05627998183288</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E20">
-        <v>14.28236478499828</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F20">
-        <v>63.07683925737064</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G20">
-        <v>3.55406785758359</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>32.86772020722863</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N20">
-        <v>16.92777186097015</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.158888539816918</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.5358300234079</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E21">
-        <v>14.99245421772055</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F21">
-        <v>66.15915029621051</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G21">
-        <v>3.538519548618552</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>34.47456840363066</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N21">
-        <v>16.87096983277958</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.233179068490955</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.84607967096215</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E22">
-        <v>15.44047584969961</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F22">
-        <v>68.13689892703945</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G22">
-        <v>3.528601304692728</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>35.49892334027498</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N22">
-        <v>16.83592927647574</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.193478552680597</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.68080669359632</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E23">
-        <v>15.20283210417433</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F23">
-        <v>67.08482137424372</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G23">
-        <v>3.533873050689236</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>34.95462418596033</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N23">
-        <v>16.85444230536397</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.044353639435879</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.04839420432523</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E24">
-        <v>14.27048875209654</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F24">
-        <v>63.02587081902524</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G24">
-        <v>3.554326200066487</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>32.84103511870809</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N24">
-        <v>16.92873582065655</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.886967587280284</v>
+        <v>7.170791873073093</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.35539527624614</v>
+        <v>17.90546190508197</v>
       </c>
       <c r="E25">
-        <v>13.19653530915206</v>
+        <v>22.51243080148538</v>
       </c>
       <c r="F25">
-        <v>58.50506007514766</v>
+        <v>103.3059176714175</v>
       </c>
       <c r="G25">
-        <v>3.577479272937054</v>
+        <v>1.686508997276787</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>30.45727794898439</v>
+        <v>54.16450024687896</v>
       </c>
       <c r="N25">
-        <v>17.01799266548944</v>
+        <v>11.52320198270655</v>
       </c>
       <c r="O25">
         <v>0</v>
